--- a/Qreport_PDF/2023Q1/2023Q1.xlsx
+++ b/Qreport_PDF/2023Q1/2023Q1.xlsx
@@ -581,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <selection activeCell="S1" sqref="S1:X1"/>
@@ -835,9 +835,7 @@
       <c r="U3" s="3" t="inlineStr"/>
       <c r="V3" s="3" t="inlineStr"/>
       <c r="W3" s="3" t="inlineStr"/>
-      <c r="X3" s="3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
+      <c r="X3" s="3" t="n">
         <v>110253.91</v>
       </c>
     </row>
@@ -905,9 +903,7 @@
       <c r="U4" s="3" t="inlineStr"/>
       <c r="V4" s="3" t="inlineStr"/>
       <c r="W4" s="3" t="inlineStr"/>
-      <c r="X4" s="3" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
+      <c r="X4" s="3" t="n">
         <v>8966956.08</v>
       </c>
     </row>
@@ -975,9 +971,7 @@
       <c r="U5" s="3" t="inlineStr"/>
       <c r="V5" s="3" t="inlineStr"/>
       <c r="W5" s="3" t="inlineStr"/>
-      <c r="X5" s="3" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
+      <c r="X5" s="3" t="n">
         <v>5461572.69</v>
       </c>
     </row>
@@ -1043,9 +1037,7 @@
       <c r="U6" s="3" t="inlineStr"/>
       <c r="V6" s="3" t="inlineStr"/>
       <c r="W6" s="3" t="inlineStr"/>
-      <c r="X6" s="3" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
+      <c r="X6" s="3" t="n">
         <v>49239.32</v>
       </c>
     </row>
@@ -1115,9 +1107,7 @@
       <c r="U7" s="3" t="inlineStr"/>
       <c r="V7" s="3" t="inlineStr"/>
       <c r="W7" s="3" t="inlineStr"/>
-      <c r="X7" s="3" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="n">
+      <c r="X7" s="3" t="n">
         <v>2847784.25</v>
       </c>
     </row>
@@ -1185,9 +1175,7 @@
       <c r="U8" s="3" t="inlineStr"/>
       <c r="V8" s="3" t="inlineStr"/>
       <c r="W8" s="3" t="inlineStr"/>
-      <c r="X8" s="3" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="n">
+      <c r="X8" s="3" t="n">
         <v>1646897.59</v>
       </c>
     </row>
@@ -1255,9 +1243,7 @@
       <c r="U9" s="3" t="inlineStr"/>
       <c r="V9" s="3" t="inlineStr"/>
       <c r="W9" s="3" t="inlineStr"/>
-      <c r="X9" s="3" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="n">
+      <c r="X9" s="3" t="n">
         <v>9596564.4</v>
       </c>
     </row>
@@ -1327,9 +1313,7 @@
       <c r="W10" s="3" t="n">
         <v>0.25</v>
       </c>
-      <c r="X10" s="3" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="n">
+      <c r="X10" s="3" t="n">
         <v>5338160.38</v>
       </c>
     </row>
@@ -1401,9 +1385,7 @@
       <c r="W11" s="3" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="X11" s="3" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="n">
+      <c r="X11" s="3" t="n">
         <v>5268143.79</v>
       </c>
     </row>
@@ -1473,9 +1455,7 @@
       <c r="W12" s="3" t="n">
         <v>0.23</v>
       </c>
-      <c r="X12" s="3" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="n">
+      <c r="X12" s="3" t="n">
         <v>895045.64</v>
       </c>
     </row>
@@ -1547,9 +1527,7 @@
       <c r="W13" s="3" t="n">
         <v>0.02</v>
       </c>
-      <c r="X13" s="3" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
+      <c r="X13" s="3" t="n">
         <v>837600.8100000001</v>
       </c>
     </row>
@@ -1613,9 +1591,7 @@
       <c r="U14" s="3" t="inlineStr"/>
       <c r="V14" s="3" t="inlineStr"/>
       <c r="W14" s="3" t="inlineStr"/>
-      <c r="X14" s="3" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
+      <c r="X14" s="3" t="n">
         <v>2866613.75</v>
       </c>
     </row>
@@ -1681,9 +1657,7 @@
       <c r="U15" s="3" t="inlineStr"/>
       <c r="V15" s="3" t="inlineStr"/>
       <c r="W15" s="3" t="inlineStr"/>
-      <c r="X15" s="3" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="n">
+      <c r="X15" s="3" t="n">
         <v>3735888.05</v>
       </c>
     </row>
@@ -1753,9 +1727,7 @@
       <c r="U16" s="3" t="inlineStr"/>
       <c r="V16" s="3" t="inlineStr"/>
       <c r="W16" s="3" t="inlineStr"/>
-      <c r="X16" s="3" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="n">
+      <c r="X16" s="3" t="n">
         <v>6303761.94</v>
       </c>
     </row>
@@ -1823,9 +1795,7 @@
       <c r="U17" s="3" t="inlineStr"/>
       <c r="V17" s="3" t="inlineStr"/>
       <c r="W17" s="3" t="inlineStr"/>
-      <c r="X17" s="3" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="n">
+      <c r="X17" s="3" t="n">
         <v>83403686.84999999</v>
       </c>
     </row>
@@ -1893,9 +1863,7 @@
       <c r="U18" s="3" t="inlineStr"/>
       <c r="V18" s="3" t="inlineStr"/>
       <c r="W18" s="3" t="inlineStr"/>
-      <c r="X18" s="3" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="n">
+      <c r="X18" s="3" t="n">
         <v>6104942.28</v>
       </c>
     </row>
@@ -1961,9 +1929,7 @@
       <c r="U19" s="3" t="inlineStr"/>
       <c r="V19" s="3" t="inlineStr"/>
       <c r="W19" s="3" t="inlineStr"/>
-      <c r="X19" s="3" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="n">
+      <c r="X19" s="3" t="n">
         <v>3398803.47</v>
       </c>
     </row>
@@ -2033,9 +1999,7 @@
       <c r="U20" s="3" t="inlineStr"/>
       <c r="V20" s="3" t="inlineStr"/>
       <c r="W20" s="3" t="inlineStr"/>
-      <c r="X20" s="3" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="n">
+      <c r="X20" s="3" t="n">
         <v>151934789.88</v>
       </c>
     </row>
@@ -2109,9 +2073,7 @@
       <c r="W21" s="3" t="n">
         <v>1.6</v>
       </c>
-      <c r="X21" s="3" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="n">
+      <c r="X21" s="3" t="n">
         <v>24918446.04</v>
       </c>
     </row>
@@ -2183,9 +2145,7 @@
       <c r="W22" s="3" t="n">
         <v>3.45</v>
       </c>
-      <c r="X22" s="3" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="n">
+      <c r="X22" s="3" t="n">
         <v>1002.18</v>
       </c>
     </row>
@@ -2253,9 +2213,7 @@
       <c r="U23" s="3" t="inlineStr"/>
       <c r="V23" s="3" t="inlineStr"/>
       <c r="W23" s="3" t="inlineStr"/>
-      <c r="X23" s="3" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="n">
+      <c r="X23" s="3" t="n">
         <v>4439926.47</v>
       </c>
     </row>
@@ -2325,9 +2283,7 @@
       <c r="U24" s="3" t="inlineStr"/>
       <c r="V24" s="3" t="inlineStr"/>
       <c r="W24" s="3" t="inlineStr"/>
-      <c r="X24" s="3" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="n">
+      <c r="X24" s="3" t="n">
         <v>7290275.74</v>
       </c>
     </row>
@@ -2395,9 +2351,7 @@
       <c r="U25" s="3" t="inlineStr"/>
       <c r="V25" s="3" t="inlineStr"/>
       <c r="W25" s="3" t="inlineStr"/>
-      <c r="X25" s="3" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="n">
+      <c r="X25" s="3" t="n">
         <v>6555674.39</v>
       </c>
     </row>
@@ -2465,9 +2419,7 @@
       <c r="U26" s="3" t="inlineStr"/>
       <c r="V26" s="3" t="inlineStr"/>
       <c r="W26" s="3" t="inlineStr"/>
-      <c r="X26" s="3" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="n">
+      <c r="X26" s="3" t="n">
         <v>10246315.12</v>
       </c>
     </row>
@@ -2537,9 +2489,7 @@
       <c r="U27" s="3" t="inlineStr"/>
       <c r="V27" s="3" t="inlineStr"/>
       <c r="W27" s="3" t="inlineStr"/>
-      <c r="X27" s="3" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="n">
+      <c r="X27" s="3" t="n">
         <v>2182407.36</v>
       </c>
     </row>
